--- a/EuroStoxx50_ECB.xlsx
+++ b/EuroStoxx50_ECB.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yesminehachana/Desktop/Classes/Dauphine/2nd Semester/Macroeconomics MATLAB Project/Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51764F0F-80F0-5344-9241-2BF7A357D4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE016A9-7E05-2E4D-A441-B5C156371A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="660" windowWidth="28500" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA(FM)" sheetId="2" r:id="rId1"/>
     <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ECB Data Portal</t>
   </si>
@@ -89,479 +102,17 @@
     <t>2025-04-01 09:34:32</t>
   </si>
   <si>
-    <t>TIME PERIOD</t>
-  </si>
-  <si>
-    <t>OBS.VALUE</t>
-  </si>
-  <si>
-    <t>Q4 1986</t>
-  </si>
-  <si>
-    <t>Q1 1987</t>
-  </si>
-  <si>
-    <t>Q2 1987</t>
-  </si>
-  <si>
-    <t>Q3 1987</t>
-  </si>
-  <si>
-    <t>Q4 1987</t>
-  </si>
-  <si>
-    <t>Q1 1988</t>
-  </si>
-  <si>
-    <t>Q2 1988</t>
-  </si>
-  <si>
-    <t>Q3 1988</t>
-  </si>
-  <si>
-    <t>Q4 1988</t>
-  </si>
-  <si>
-    <t>Q1 1989</t>
-  </si>
-  <si>
-    <t>Q2 1989</t>
-  </si>
-  <si>
-    <t>Q3 1989</t>
-  </si>
-  <si>
-    <t>Q4 1989</t>
-  </si>
-  <si>
-    <t>Q1 1990</t>
-  </si>
-  <si>
-    <t>Q2 1990</t>
-  </si>
-  <si>
-    <t>Q3 1990</t>
-  </si>
-  <si>
-    <t>Q4 1990</t>
-  </si>
-  <si>
-    <t>Q1 1991</t>
-  </si>
-  <si>
-    <t>Q2 1991</t>
-  </si>
-  <si>
-    <t>Q3 1991</t>
-  </si>
-  <si>
-    <t>Q4 1991</t>
-  </si>
-  <si>
-    <t>Q1 1992</t>
-  </si>
-  <si>
-    <t>Q2 1992</t>
-  </si>
-  <si>
-    <t>Q3 1992</t>
-  </si>
-  <si>
-    <t>Q4 1992</t>
-  </si>
-  <si>
-    <t>Q1 1993</t>
-  </si>
-  <si>
-    <t>Q2 1993</t>
-  </si>
-  <si>
-    <t>Q3 1993</t>
-  </si>
-  <si>
-    <t>Q4 1993</t>
-  </si>
-  <si>
-    <t>Q1 1994</t>
-  </si>
-  <si>
-    <t>Q2 1994</t>
-  </si>
-  <si>
-    <t>Q3 1994</t>
-  </si>
-  <si>
-    <t>Q4 1994</t>
-  </si>
-  <si>
-    <t>Q1 1995</t>
-  </si>
-  <si>
-    <t>Q2 1995</t>
-  </si>
-  <si>
-    <t>Q3 1995</t>
-  </si>
-  <si>
-    <t>Q4 1995</t>
-  </si>
-  <si>
-    <t>Q1 1996</t>
-  </si>
-  <si>
-    <t>Q2 1996</t>
-  </si>
-  <si>
-    <t>Q3 1996</t>
-  </si>
-  <si>
-    <t>Q4 1996</t>
-  </si>
-  <si>
-    <t>Q1 1997</t>
-  </si>
-  <si>
-    <t>Q2 1997</t>
-  </si>
-  <si>
-    <t>Q3 1997</t>
-  </si>
-  <si>
-    <t>Q4 1997</t>
-  </si>
-  <si>
-    <t>Q1 1998</t>
-  </si>
-  <si>
-    <t>Q2 1998</t>
-  </si>
-  <si>
-    <t>Q3 1998</t>
-  </si>
-  <si>
-    <t>Q4 1998</t>
-  </si>
-  <si>
-    <t>Q1 1999</t>
-  </si>
-  <si>
-    <t>Q2 1999</t>
-  </si>
-  <si>
-    <t>Q3 1999</t>
-  </si>
-  <si>
-    <t>Q4 1999</t>
-  </si>
-  <si>
-    <t>Q1 2000</t>
-  </si>
-  <si>
-    <t>Q2 2000</t>
-  </si>
-  <si>
-    <t>Q3 2000</t>
-  </si>
-  <si>
-    <t>Q4 2000</t>
-  </si>
-  <si>
-    <t>Q1 2001</t>
-  </si>
-  <si>
-    <t>Q2 2001</t>
-  </si>
-  <si>
-    <t>Q3 2001</t>
-  </si>
-  <si>
-    <t>Q4 2001</t>
-  </si>
-  <si>
-    <t>Q1 2002</t>
-  </si>
-  <si>
-    <t>Q2 2002</t>
-  </si>
-  <si>
-    <t>Q3 2002</t>
-  </si>
-  <si>
-    <t>Q4 2002</t>
-  </si>
-  <si>
-    <t>Q1 2003</t>
-  </si>
-  <si>
-    <t>Q2 2003</t>
-  </si>
-  <si>
-    <t>Q3 2003</t>
-  </si>
-  <si>
-    <t>Q4 2003</t>
-  </si>
-  <si>
-    <t>Q1 2004</t>
-  </si>
-  <si>
-    <t>Q2 2004</t>
-  </si>
-  <si>
-    <t>Q3 2004</t>
-  </si>
-  <si>
-    <t>Q4 2004</t>
-  </si>
-  <si>
-    <t>Q1 2005</t>
-  </si>
-  <si>
-    <t>Q2 2005</t>
-  </si>
-  <si>
-    <t>Q3 2005</t>
-  </si>
-  <si>
-    <t>Q4 2005</t>
-  </si>
-  <si>
-    <t>Q1 2006</t>
-  </si>
-  <si>
-    <t>Q2 2006</t>
-  </si>
-  <si>
-    <t>Q3 2006</t>
-  </si>
-  <si>
-    <t>Q4 2006</t>
-  </si>
-  <si>
-    <t>Q1 2007</t>
-  </si>
-  <si>
-    <t>Q2 2007</t>
-  </si>
-  <si>
-    <t>Q3 2007</t>
-  </si>
-  <si>
-    <t>Q4 2007</t>
-  </si>
-  <si>
-    <t>Q1 2008</t>
-  </si>
-  <si>
-    <t>Q2 2008</t>
-  </si>
-  <si>
-    <t>Q3 2008</t>
-  </si>
-  <si>
-    <t>Q4 2008</t>
-  </si>
-  <si>
-    <t>Q1 2009</t>
-  </si>
-  <si>
-    <t>Q2 2009</t>
-  </si>
-  <si>
-    <t>Q3 2009</t>
-  </si>
-  <si>
-    <t>Q4 2009</t>
-  </si>
-  <si>
-    <t>Q1 2010</t>
-  </si>
-  <si>
-    <t>Q2 2010</t>
-  </si>
-  <si>
-    <t>Q3 2010</t>
-  </si>
-  <si>
-    <t>Q4 2010</t>
-  </si>
-  <si>
-    <t>Q1 2011</t>
-  </si>
-  <si>
-    <t>Q2 2011</t>
-  </si>
-  <si>
-    <t>Q3 2011</t>
-  </si>
-  <si>
-    <t>Q4 2011</t>
-  </si>
-  <si>
-    <t>Q1 2012</t>
-  </si>
-  <si>
-    <t>Q2 2012</t>
-  </si>
-  <si>
-    <t>Q3 2012</t>
-  </si>
-  <si>
-    <t>Q4 2012</t>
-  </si>
-  <si>
-    <t>Q1 2013</t>
-  </si>
-  <si>
-    <t>Q2 2013</t>
-  </si>
-  <si>
-    <t>Q3 2013</t>
-  </si>
-  <si>
-    <t>Q4 2013</t>
-  </si>
-  <si>
-    <t>Q1 2014</t>
-  </si>
-  <si>
-    <t>Q2 2014</t>
-  </si>
-  <si>
-    <t>Q3 2014</t>
-  </si>
-  <si>
-    <t>Q4 2014</t>
-  </si>
-  <si>
-    <t>Q1 2015</t>
-  </si>
-  <si>
-    <t>Q2 2015</t>
-  </si>
-  <si>
-    <t>Q3 2015</t>
-  </si>
-  <si>
-    <t>Q4 2015</t>
-  </si>
-  <si>
-    <t>Q1 2016</t>
-  </si>
-  <si>
-    <t>Q2 2016</t>
-  </si>
-  <si>
-    <t>Q3 2016</t>
-  </si>
-  <si>
-    <t>Q4 2016</t>
-  </si>
-  <si>
-    <t>Q1 2017</t>
-  </si>
-  <si>
-    <t>Q2 2017</t>
-  </si>
-  <si>
-    <t>Q3 2017</t>
-  </si>
-  <si>
-    <t>Q4 2017</t>
-  </si>
-  <si>
-    <t>Q1 2018</t>
-  </si>
-  <si>
-    <t>Q2 2018</t>
-  </si>
-  <si>
-    <t>Q3 2018</t>
-  </si>
-  <si>
-    <t>Q4 2018</t>
-  </si>
-  <si>
-    <t>Q1 2019</t>
-  </si>
-  <si>
-    <t>Q2 2019</t>
-  </si>
-  <si>
-    <t>Q3 2019</t>
-  </si>
-  <si>
-    <t>Q4 2019</t>
-  </si>
-  <si>
-    <t>Q1 2020</t>
-  </si>
-  <si>
-    <t>Q2 2020</t>
-  </si>
-  <si>
-    <t>Q3 2020</t>
-  </si>
-  <si>
-    <t>Q4 2020</t>
-  </si>
-  <si>
-    <t>Q1 2021</t>
-  </si>
-  <si>
-    <t>Q2 2021</t>
-  </si>
-  <si>
-    <t>Q3 2021</t>
-  </si>
-  <si>
-    <t>Q4 2021</t>
-  </si>
-  <si>
-    <t>Q1 2022</t>
-  </si>
-  <si>
-    <t>Q2 2022</t>
-  </si>
-  <si>
-    <t>Q3 2022</t>
-  </si>
-  <si>
-    <t>Q4 2022</t>
-  </si>
-  <si>
-    <t>Q1 2023</t>
-  </si>
-  <si>
-    <t>Q2 2023</t>
-  </si>
-  <si>
-    <t>Q3 2023</t>
-  </si>
-  <si>
-    <t>Q4 2023</t>
-  </si>
-  <si>
-    <t>Q1 2024</t>
-  </si>
-  <si>
-    <t>Q2 2024</t>
-  </si>
-  <si>
-    <t>Q3 2024</t>
-  </si>
-  <si>
-    <t>Q4 2024</t>
-  </si>
-  <si>
-    <t>Q1 2025</t>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Eurostoxx 50 points</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -643,18 +194,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -676,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -690,8 +229,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,7 +567,7 @@
   <dimension ref="A1:B155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1039,1240 +577,1240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
+      <c r="A2" s="13">
+        <v>31686</v>
       </c>
       <c r="B2">
         <v>1091.1887999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>25</v>
+      <c r="A3" s="13">
+        <v>31778</v>
       </c>
       <c r="B3">
         <v>858.66470000000004</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
+      <c r="A4" s="13">
+        <v>31868</v>
       </c>
       <c r="B4">
         <v>881.86120000000005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>27</v>
+      <c r="A5" s="13">
+        <v>31959</v>
       </c>
       <c r="B5">
         <v>938.16920000000005</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>28</v>
+      <c r="A6" s="13">
+        <v>32051</v>
       </c>
       <c r="B6">
         <v>726.05640000000005</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>29</v>
+      <c r="A7" s="13">
+        <v>32143</v>
       </c>
       <c r="B7">
         <v>681.86519999999996</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>30</v>
+      <c r="A8" s="13">
+        <v>32234</v>
       </c>
       <c r="B8">
         <v>719.46400000000006</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>31</v>
+      <c r="A9" s="13">
+        <v>32325</v>
       </c>
       <c r="B9">
         <v>778.3211</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
+      <c r="A10" s="13">
+        <v>32417</v>
       </c>
       <c r="B10">
         <v>832.72429999999997</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>33</v>
+      <c r="A11" s="13">
+        <v>32509</v>
       </c>
       <c r="B11">
         <v>877.22950000000003</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
+      <c r="A12" s="13">
+        <v>32599</v>
       </c>
       <c r="B12">
         <v>917.27260000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>35</v>
+      <c r="A13" s="13">
+        <v>32690</v>
       </c>
       <c r="B13">
         <v>1016.3606</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>36</v>
+      <c r="A14" s="13">
+        <v>32782</v>
       </c>
       <c r="B14">
         <v>1014.7618</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>37</v>
+      <c r="A15" s="13">
+        <v>32874</v>
       </c>
       <c r="B15">
         <v>1083.8818000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>38</v>
+      <c r="A16" s="13">
+        <v>32964</v>
       </c>
       <c r="B16">
         <v>1111.1883</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>39</v>
+      <c r="A17" s="13">
+        <v>33055</v>
       </c>
       <c r="B17">
         <v>1011.2311999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>40</v>
+      <c r="A18" s="13">
+        <v>33147</v>
       </c>
       <c r="B18">
         <v>884.85140000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>41</v>
+      <c r="A19" s="13">
+        <v>33239</v>
       </c>
       <c r="B19">
         <v>914.26279999999997</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>42</v>
+      <c r="A20" s="13">
+        <v>33329</v>
       </c>
       <c r="B20">
         <v>1017.5662</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>43</v>
+      <c r="A21" s="13">
+        <v>33420</v>
       </c>
       <c r="B21">
         <v>1003.9855</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>44</v>
+      <c r="A22" s="13">
+        <v>33512</v>
       </c>
       <c r="B22">
         <v>991.86519999999996</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>45</v>
+      <c r="A23" s="13">
+        <v>33604</v>
       </c>
       <c r="B23">
         <v>1054.1411000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>46</v>
+      <c r="A24" s="13">
+        <v>33695</v>
       </c>
       <c r="B24">
         <v>1080.1665</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>47</v>
+      <c r="A25" s="13">
+        <v>33786</v>
       </c>
       <c r="B25">
         <v>990.80909999999994</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>48</v>
+      <c r="A26" s="13">
+        <v>33878</v>
       </c>
       <c r="B26">
         <v>990.11770000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>49</v>
+      <c r="A27" s="13">
+        <v>33970</v>
       </c>
       <c r="B27">
         <v>1091.1887999999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>50</v>
+      <c r="A28" s="13">
+        <v>34060</v>
       </c>
       <c r="B28">
         <v>1124.9634000000001</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>51</v>
+      <c r="A29" s="13">
+        <v>34151</v>
       </c>
       <c r="B29">
         <v>1247.2076</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>52</v>
+      <c r="A30" s="13">
+        <v>34243</v>
       </c>
       <c r="B30">
         <v>1353.3530000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>53</v>
+      <c r="A31" s="13">
+        <v>34335</v>
       </c>
       <c r="B31">
         <v>1410.4709</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="A32" s="13">
+        <v>34425</v>
       </c>
       <c r="B32">
         <v>1382.1591000000001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>55</v>
+      <c r="A33" s="13">
+        <v>34516</v>
       </c>
       <c r="B33">
         <v>1348.7597000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>56</v>
+      <c r="A34" s="13">
+        <v>34608</v>
       </c>
       <c r="B34">
         <v>1313.8712</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>57</v>
+      <c r="A35" s="13">
+        <v>34700</v>
       </c>
       <c r="B35">
         <v>1309.5686000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>58</v>
+      <c r="A36" s="13">
+        <v>34790</v>
       </c>
       <c r="B36">
         <v>1363.6529</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>59</v>
+      <c r="A37" s="13">
+        <v>34881</v>
       </c>
       <c r="B37">
         <v>1438.6509000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>60</v>
+      <c r="A38" s="13">
+        <v>34973</v>
       </c>
       <c r="B38">
         <v>1440.3517999999999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>61</v>
+      <c r="A39" s="13">
+        <v>35065</v>
       </c>
       <c r="B39">
         <v>1578.5598</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>62</v>
+      <c r="A40" s="13">
+        <v>35156</v>
       </c>
       <c r="B40">
         <v>1661.6375</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>63</v>
+      <c r="A41" s="13">
+        <v>35247</v>
       </c>
       <c r="B41">
         <v>1625.6587999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>64</v>
+      <c r="A42" s="13">
+        <v>35339</v>
       </c>
       <c r="B42">
         <v>1762.9348</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>65</v>
+      <c r="A43" s="13">
+        <v>35431</v>
       </c>
       <c r="B43">
         <v>2038.1396999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>66</v>
+      <c r="A44" s="13">
+        <v>35521</v>
       </c>
       <c r="B44">
         <v>2227.6125000000002</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>67</v>
+      <c r="A45" s="13">
+        <v>35612</v>
       </c>
       <c r="B45">
         <v>2547.8944999999999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>68</v>
+      <c r="A46" s="13">
+        <v>35704</v>
       </c>
       <c r="B46">
         <v>2454.8058000000001</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>69</v>
+      <c r="A47" s="13">
+        <v>35796</v>
       </c>
       <c r="B47">
         <v>2788.6956</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>70</v>
+      <c r="A48" s="13">
+        <v>35886</v>
       </c>
       <c r="B48">
         <v>3302.2334999999998</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>71</v>
+      <c r="A49" s="13">
+        <v>35977</v>
       </c>
       <c r="B49">
         <v>3234.9733000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>72</v>
+      <c r="A50" s="13">
+        <v>36069</v>
       </c>
       <c r="B50">
         <v>2973.3724000000002</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>73</v>
+      <c r="A51" s="13">
+        <v>36161</v>
       </c>
       <c r="B51">
         <v>3494.7727</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>74</v>
+      <c r="A52" s="13">
+        <v>36251</v>
       </c>
       <c r="B52">
         <v>3697.4115000000002</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>75</v>
+      <c r="A53" s="13">
+        <v>36342</v>
       </c>
       <c r="B53">
         <v>3770.1179999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>76</v>
+      <c r="A54" s="13">
+        <v>36434</v>
       </c>
       <c r="B54">
         <v>4177.0734000000002</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>77</v>
+      <c r="A55" s="13">
+        <v>36526</v>
       </c>
       <c r="B55">
         <v>5049.0234</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>78</v>
+      <c r="A56" s="13">
+        <v>36617</v>
       </c>
       <c r="B56">
         <v>5200.8173999999999</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>79</v>
+      <c r="A57" s="13">
+        <v>36708</v>
       </c>
       <c r="B57">
         <v>5170.3155999999999</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>80</v>
+      <c r="A58" s="13">
+        <v>36800</v>
       </c>
       <c r="B58">
         <v>4882.4764999999998</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>81</v>
+      <c r="A59" s="13">
+        <v>36892</v>
       </c>
       <c r="B59">
         <v>4487.3981999999996</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>82</v>
+      <c r="A60" s="13">
+        <v>36982</v>
       </c>
       <c r="B60">
         <v>4363.4858999999997</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>83</v>
+      <c r="A61" s="13">
+        <v>37073</v>
       </c>
       <c r="B61">
         <v>3749.5165000000002</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>84</v>
+      <c r="A62" s="13">
+        <v>37165</v>
       </c>
       <c r="B62">
         <v>3604.7831000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>85</v>
+      <c r="A63" s="13">
+        <v>37257</v>
       </c>
       <c r="B63">
         <v>3660.2213999999999</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>86</v>
+      <c r="A64" s="13">
+        <v>37347</v>
       </c>
       <c r="B64">
         <v>3445.0954999999999</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>87</v>
+      <c r="A65" s="13">
+        <v>37438</v>
       </c>
       <c r="B65">
         <v>2658.2127999999998</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>88</v>
+      <c r="A66" s="13">
+        <v>37530</v>
       </c>
       <c r="B66">
         <v>2470.9461000000001</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>89</v>
+      <c r="A67" s="13">
+        <v>37622</v>
       </c>
       <c r="B67">
         <v>2217.3937999999998</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>90</v>
+      <c r="A68" s="13">
+        <v>37712</v>
       </c>
       <c r="B68">
         <v>2339.9810000000002</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>91</v>
+      <c r="A69" s="13">
+        <v>37803</v>
       </c>
       <c r="B69">
         <v>2511.4531999999999</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>92</v>
+      <c r="A70" s="13">
+        <v>37895</v>
       </c>
       <c r="B70">
         <v>2614.3371000000002</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>93</v>
+      <c r="A71" s="13">
+        <v>37987</v>
       </c>
       <c r="B71">
         <v>2846.5095999999999</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>94</v>
+      <c r="A72" s="13">
+        <v>38078</v>
       </c>
       <c r="B72">
         <v>2794.8779</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>95</v>
+      <c r="A73" s="13">
+        <v>38169</v>
       </c>
       <c r="B73">
         <v>2708.6511</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>96</v>
+      <c r="A74" s="13">
+        <v>38261</v>
       </c>
       <c r="B74">
         <v>2869.6853000000001</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>97</v>
+      <c r="A75" s="13">
+        <v>38353</v>
       </c>
       <c r="B75">
         <v>3025.2921999999999</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>98</v>
+      <c r="A76" s="13">
+        <v>38443</v>
       </c>
       <c r="B76">
         <v>3063.7183</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>99</v>
+      <c r="A77" s="13">
+        <v>38534</v>
       </c>
       <c r="B77">
         <v>3307.9703</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>100</v>
+      <c r="A78" s="13">
+        <v>38626</v>
       </c>
       <c r="B78">
         <v>3433.0801000000001</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>101</v>
+      <c r="A79" s="13">
+        <v>38718</v>
       </c>
       <c r="B79">
         <v>3729.4132</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>102</v>
+      <c r="A80" s="13">
+        <v>38808</v>
       </c>
       <c r="B80">
         <v>3692.9222</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>103</v>
+      <c r="A81" s="13">
+        <v>38899</v>
       </c>
       <c r="B81">
         <v>3726.7963</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>104</v>
+      <c r="A82" s="13">
+        <v>38991</v>
       </c>
       <c r="B82">
         <v>4032.4234000000001</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>105</v>
+      <c r="A83" s="13">
+        <v>39083</v>
       </c>
       <c r="B83">
         <v>4150.5137999999997</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>106</v>
+      <c r="A84" s="13">
+        <v>39173</v>
       </c>
       <c r="B84">
         <v>4416.1716999999999</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>107</v>
+      <c r="A85" s="13">
+        <v>39264</v>
       </c>
       <c r="B85">
         <v>4317.5613000000003</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>108</v>
+      <c r="A86" s="13">
+        <v>39356</v>
       </c>
       <c r="B86">
         <v>4377.9002</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>109</v>
+      <c r="A87" s="13">
+        <v>39448</v>
       </c>
       <c r="B87">
         <v>3809.3892000000001</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>110</v>
+      <c r="A88" s="13">
+        <v>39539</v>
       </c>
       <c r="B88">
         <v>3705.5924</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>111</v>
+      <c r="A89" s="13">
+        <v>39630</v>
       </c>
       <c r="B89">
         <v>3278.7570000000001</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>112</v>
+      <c r="A90" s="13">
+        <v>39722</v>
       </c>
       <c r="B90">
         <v>2497.6646000000001</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>113</v>
+      <c r="A91" s="13">
+        <v>39814</v>
       </c>
       <c r="B91">
         <v>2166.4328999999998</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>114</v>
+      <c r="A92" s="13">
+        <v>39904</v>
       </c>
       <c r="B92">
         <v>2376.5646000000002</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>115</v>
+      <c r="A93" s="13">
+        <v>39995</v>
       </c>
       <c r="B93">
         <v>2660.5826000000002</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>116</v>
+      <c r="A94" s="13">
+        <v>40087</v>
       </c>
       <c r="B94">
         <v>2872.7397999999998</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>117</v>
+      <c r="A95" s="13">
+        <v>40179</v>
       </c>
       <c r="B95">
         <v>2848.9657000000002</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>118</v>
+      <c r="A96" s="13">
+        <v>40269</v>
       </c>
       <c r="B96">
         <v>2735.6698999999999</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>119</v>
+      <c r="A97" s="13">
+        <v>40360</v>
       </c>
       <c r="B97">
         <v>2715.9394000000002</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>120</v>
+      <c r="A98" s="13">
+        <v>40452</v>
       </c>
       <c r="B98">
         <v>2817.7640000000001</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>121</v>
+      <c r="A99" s="13">
+        <v>40544</v>
       </c>
       <c r="B99">
         <v>2932.9304000000002</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>122</v>
+      <c r="A100" s="13">
+        <v>40634</v>
       </c>
       <c r="B100">
         <v>2862.6709999999998</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>123</v>
+      <c r="A101" s="13">
+        <v>40725</v>
       </c>
       <c r="B101">
         <v>2381.5675999999999</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>124</v>
+      <c r="A102" s="13">
+        <v>40817</v>
       </c>
       <c r="B102">
         <v>2277.7851000000001</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>125</v>
+      <c r="A103" s="13">
+        <v>40909</v>
       </c>
       <c r="B103">
         <v>2473.6399000000001</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>126</v>
+      <c r="A104" s="13">
+        <v>41000</v>
       </c>
       <c r="B104">
         <v>2226.1588999999999</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>127</v>
+      <c r="A105" s="13">
+        <v>41091</v>
       </c>
       <c r="B105">
         <v>2400.9411</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>128</v>
+      <c r="A106" s="13">
+        <v>41183</v>
       </c>
       <c r="B106">
         <v>2543.3271</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>129</v>
+      <c r="A107" s="13">
+        <v>41275</v>
       </c>
       <c r="B107">
         <v>2676.5843</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>130</v>
+      <c r="A108" s="13">
+        <v>41365</v>
       </c>
       <c r="B108">
         <v>2696.1122</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>131</v>
+      <c r="A109" s="13">
+        <v>41456</v>
       </c>
       <c r="B109">
         <v>2782.2815000000001</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>132</v>
+      <c r="A110" s="13">
+        <v>41548</v>
       </c>
       <c r="B110">
         <v>3017.5605</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>133</v>
+      <c r="A111" s="13">
+        <v>41640</v>
       </c>
       <c r="B111">
         <v>3090.8483999999999</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>134</v>
+      <c r="A112" s="13">
+        <v>41730</v>
       </c>
       <c r="B112">
         <v>3213.9506999999999</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>135</v>
+      <c r="A113" s="13">
+        <v>41821</v>
       </c>
       <c r="B113">
         <v>3173.1446999999998</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>136</v>
+      <c r="A114" s="13">
+        <v>41913</v>
       </c>
       <c r="B114">
         <v>3102.4749000000002</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>137</v>
+      <c r="A115" s="13">
+        <v>42005</v>
       </c>
       <c r="B115">
         <v>3441.9821999999999</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>138</v>
+      <c r="A116" s="13">
+        <v>42095</v>
       </c>
       <c r="B116">
         <v>3621.1145999999999</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>139</v>
+      <c r="A117" s="13">
+        <v>42186</v>
       </c>
       <c r="B117">
         <v>3386.5137</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>140</v>
+      <c r="A118" s="13">
+        <v>42278</v>
       </c>
       <c r="B118">
         <v>3332.9458</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>141</v>
+      <c r="A119" s="13">
+        <v>42370</v>
       </c>
       <c r="B119">
         <v>2973.9391000000001</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>142</v>
+      <c r="A120" s="13">
+        <v>42461</v>
       </c>
       <c r="B120">
         <v>2974.3690000000001</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>143</v>
+      <c r="A121" s="13">
+        <v>42552</v>
       </c>
       <c r="B121">
         <v>2975.7975999999999</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>144</v>
+      <c r="A122" s="13">
+        <v>42644</v>
       </c>
       <c r="B122">
         <v>3090.9748</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>145</v>
+      <c r="A123" s="13">
+        <v>42736</v>
       </c>
       <c r="B123">
         <v>3342.4348</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>146</v>
+      <c r="A124" s="13">
+        <v>42826</v>
       </c>
       <c r="B124">
         <v>3551.5675999999999</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>147</v>
+      <c r="A125" s="13">
+        <v>42917</v>
       </c>
       <c r="B125">
         <v>3479.8800999999999</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>148</v>
+      <c r="A126" s="13">
+        <v>43009</v>
       </c>
       <c r="B126">
         <v>3594.9895000000001</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>149</v>
+      <c r="A127" s="13">
+        <v>43101</v>
       </c>
       <c r="B127">
         <v>3474</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>150</v>
+      <c r="A128" s="13">
+        <v>43191</v>
       </c>
       <c r="B128">
         <v>3481.3044</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>151</v>
+      <c r="A129" s="13">
+        <v>43282</v>
       </c>
       <c r="B129">
         <v>3422.9398000000001</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>152</v>
+      <c r="A130" s="13">
+        <v>43374</v>
       </c>
       <c r="B130">
         <v>3169.1323000000002</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>153</v>
+      <c r="A131" s="13">
+        <v>43466</v>
       </c>
       <c r="B131">
         <v>3212.7266</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>154</v>
+      <c r="A132" s="13">
+        <v>43556</v>
       </c>
       <c r="B132">
         <v>3415.2197000000001</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>155</v>
+      <c r="A133" s="13">
+        <v>43647</v>
       </c>
       <c r="B133">
         <v>3459.1172999999999</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>156</v>
+      <c r="A134" s="13">
+        <v>43739</v>
       </c>
       <c r="B134">
         <v>3649.0744</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>157</v>
+      <c r="A135" s="13">
+        <v>43831</v>
       </c>
       <c r="B135">
         <v>3429.8706000000002</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>158</v>
+      <c r="A136" s="13">
+        <v>43922</v>
       </c>
       <c r="B136">
         <v>3001.7456000000002</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>159</v>
+      <c r="A137" s="13">
+        <v>44013</v>
       </c>
       <c r="B137">
         <v>3291.8463000000002</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>160</v>
+      <c r="A138" s="13">
+        <v>44105</v>
       </c>
       <c r="B138">
         <v>3367.3397</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>161</v>
+      <c r="A139" s="13">
+        <v>44197</v>
       </c>
       <c r="B139">
         <v>3696.7190000000001</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>162</v>
+      <c r="A140" s="13">
+        <v>44287</v>
       </c>
       <c r="B140">
         <v>4034.11</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>163</v>
+      <c r="A141" s="13">
+        <v>44378</v>
       </c>
       <c r="B141">
         <v>4132.6395000000002</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>164</v>
+      <c r="A142" s="13">
+        <v>44470</v>
       </c>
       <c r="B142">
         <v>4216.6287000000002</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>165</v>
+      <c r="A143" s="13">
+        <v>44562</v>
       </c>
       <c r="B143">
         <v>4035.9776999999999</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>166</v>
+      <c r="A144" s="13">
+        <v>44652</v>
       </c>
       <c r="B144">
         <v>3699.306</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>167</v>
+      <c r="A145" s="13">
+        <v>44743</v>
       </c>
       <c r="B145">
         <v>3566.2049000000002</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>168</v>
+      <c r="A146" s="13">
+        <v>44835</v>
       </c>
       <c r="B146">
         <v>3731.4571999999998</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>169</v>
+      <c r="A147" s="13">
+        <v>44927</v>
       </c>
       <c r="B147">
         <v>4176.0218000000004</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>170</v>
+      <c r="A148" s="13">
+        <v>45017</v>
       </c>
       <c r="B148">
         <v>4332.2356</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>171</v>
+      <c r="A149" s="13">
+        <v>45108</v>
       </c>
       <c r="B149">
         <v>4296.2128000000002</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>172</v>
+      <c r="A150" s="13">
+        <v>45200</v>
       </c>
       <c r="B150">
         <v>4285.7321000000002</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>173</v>
+      <c r="A151" s="13">
+        <v>45292</v>
       </c>
       <c r="B151">
         <v>4743.7564000000002</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>174</v>
+      <c r="A152" s="13">
+        <v>45383</v>
       </c>
       <c r="B152">
         <v>4986.9988999999996</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>175</v>
+      <c r="A153" s="13">
+        <v>45474</v>
       </c>
       <c r="B153">
         <v>4860.3554999999997</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>176</v>
+      <c r="A154" s="13">
+        <v>45566</v>
       </c>
       <c r="B154">
         <v>4888.7206999999999</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>177</v>
+      <c r="A155" s="13">
+        <v>45658</v>
       </c>
       <c r="B155">
         <v>5306.8324000000002</v>
@@ -2294,7 +1832,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" customWidth="1"/>
     <col min="9" max="9" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
